--- a/public/template/excel/backup/format_laporan_operasi_2021_preview_new.xlsx
+++ b/public/template/excel/backup/format_laporan_operasi_2021_preview_new.xlsx
@@ -978,7 +978,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,14 +1037,6 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1307,10 +1299,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1345,7 +1336,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,10 +1378,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,9 +1416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,6 +1529,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1560,8 +1551,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
@@ -1865,26 +1855,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H426"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="59" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="58" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="58" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="8"/>
@@ -1892,7 +1882,7 @@
       <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="46" t="s">
         <v>298</v>
       </c>
@@ -1915,7 +1905,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>300</v>
       </c>
       <c r="C4" s="44"/>
@@ -1926,7 +1916,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="85"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="8"/>
@@ -1934,7 +1924,7 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>301</v>
       </c>
       <c r="C6" s="45"/>
@@ -1944,7 +1934,7 @@
       <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="40"/>
@@ -1954,7 +1944,7 @@
       <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>290</v>
       </c>
       <c r="C8" s="46"/>
@@ -2077,11 +2067,11 @@
         <f>D15-C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="76" t="e">
+      <c r="F15" s="75" t="e">
         <f>SUM(D15-C15)/C15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2102,11 +2092,11 @@
         <f t="shared" ref="E16:E17" si="0">D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="76" t="e">
+      <c r="F16" s="75" t="e">
         <f t="shared" ref="F16:F79" si="1">SUM(D16-C16)/C16*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2129,11 +2119,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="76" t="e">
+      <c r="F17" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2145,10 +2135,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="60"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="63" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="62" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2160,10 +2150,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="60"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="62" t="s">
+      <c r="F19" s="75"/>
+      <c r="G19" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2184,11 +2174,11 @@
         <f t="shared" ref="E20:E36" si="2">D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="76" t="e">
+      <c r="F20" s="75" t="e">
         <f>SUM(D20-C20)/C20*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2209,11 +2199,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="76" t="e">
+      <c r="F21" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2232,11 +2222,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="76" t="e">
+      <c r="F22" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2257,11 +2247,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="76" t="e">
+      <c r="F23" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2282,11 +2272,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="76" t="e">
+      <c r="F24" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2307,11 +2297,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="76" t="e">
+      <c r="F25" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2330,11 +2320,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26" s="76" t="e">
+      <c r="F26" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2353,11 +2343,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="76" t="e">
+      <c r="F27" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2376,11 +2366,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="76" t="e">
+      <c r="F28" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2399,11 +2389,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="76" t="e">
+      <c r="F29" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2422,11 +2412,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="76" t="e">
+      <c r="F30" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2445,11 +2435,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="76" t="e">
+      <c r="F31" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2468,11 +2458,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="76" t="e">
+      <c r="F32" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2491,11 +2481,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="76" t="e">
+      <c r="F33" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2514,11 +2504,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="76" t="e">
+      <c r="F34" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2539,11 +2529,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="76" t="e">
+      <c r="F35" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="62" t="s">
+      <c r="G35" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2564,11 +2554,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F36" s="76" t="e">
+      <c r="F36" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2591,11 +2581,11 @@
         <f>D37-C37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="76" t="e">
+      <c r="F37" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2607,10 +2597,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="60"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="63"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -2627,11 +2617,11 @@
         <f t="shared" ref="E39:E102" si="3">D39-C39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="76" t="e">
+      <c r="F39" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2650,11 +2640,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="76" t="e">
+      <c r="F40" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="62" t="s">
+      <c r="G40" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2673,11 +2663,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="76" t="e">
+      <c r="F41" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2696,11 +2686,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="76" t="e">
+      <c r="F42" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2719,11 +2709,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F43" s="76" t="e">
+      <c r="F43" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2742,11 +2732,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F44" s="76" t="e">
+      <c r="F44" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2765,11 +2755,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="76" t="e">
+      <c r="F45" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2788,11 +2778,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F46" s="76" t="e">
+      <c r="F46" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2811,11 +2801,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F47" s="76" t="e">
+      <c r="F47" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2834,11 +2824,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="76" t="e">
+      <c r="F48" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2857,11 +2847,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49" s="76" t="e">
+      <c r="F49" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="62" t="s">
+      <c r="G49" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2882,11 +2872,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="76" t="e">
+      <c r="F50" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2907,11 +2897,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="76" t="e">
+      <c r="F51" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="62" t="s">
+      <c r="G51" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2932,11 +2922,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="76" t="e">
+      <c r="F52" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2957,11 +2947,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F53" s="76" t="e">
+      <c r="F53" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="62" t="s">
+      <c r="G53" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2982,11 +2972,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F54" s="76" t="e">
+      <c r="F54" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3005,11 +2995,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F55" s="76" t="e">
+      <c r="F55" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="62" t="s">
+      <c r="G55" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3032,11 +3022,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F56" s="76" t="e">
+      <c r="F56" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G56" s="63" t="s">
+      <c r="G56" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3046,10 +3036,10 @@
         <v>40</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="60"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -3066,11 +3056,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="76" t="e">
+      <c r="F58" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="62" t="s">
+      <c r="G58" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3093,11 +3083,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F59" s="76" t="e">
+      <c r="F59" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="63" t="s">
+      <c r="G59" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3109,10 +3099,10 @@
         <v>170</v>
       </c>
       <c r="C60" s="47"/>
-      <c r="D60" s="60"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="62"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -3129,11 +3119,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F61" s="76" t="e">
+      <c r="F61" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3152,11 +3142,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F62" s="76" t="e">
+      <c r="F62" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G62" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3175,11 +3165,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F63" s="76" t="e">
+      <c r="F63" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="62" t="s">
+      <c r="G63" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3200,11 +3190,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F64" s="76" t="e">
+      <c r="F64" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="63" t="s">
+      <c r="G64" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3216,10 +3206,10 @@
         <v>42</v>
       </c>
       <c r="C65" s="11"/>
-      <c r="D65" s="60"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="62"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -3238,11 +3228,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F66" s="76" t="e">
+      <c r="F66" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="G66" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3263,11 +3253,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F67" s="76" t="e">
+      <c r="F67" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3288,11 +3278,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F68" s="76" t="e">
+      <c r="F68" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="62" t="s">
+      <c r="G68" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3313,11 +3303,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F69" s="76" t="e">
+      <c r="F69" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="64" t="s">
+      <c r="G69" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3338,11 +3328,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F70" s="76" t="e">
+      <c r="F70" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="62" t="s">
+      <c r="G70" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3365,11 +3355,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F71" s="76" t="e">
+      <c r="F71" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G71" s="63" t="s">
+      <c r="G71" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3381,10 +3371,10 @@
         <v>269</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="60"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="63"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="62"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
@@ -3403,11 +3393,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="76" t="e">
+      <c r="F73" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G73" s="62" t="s">
+      <c r="G73" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3428,11 +3418,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="76" t="e">
+      <c r="F74" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3453,11 +3443,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="76" t="e">
+      <c r="F75" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G75" s="62" t="s">
+      <c r="G75" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3478,11 +3468,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="76" t="e">
+      <c r="F76" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="G76" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3503,11 +3493,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F77" s="76" t="e">
+      <c r="F77" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3528,11 +3518,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="76" t="e">
+      <c r="F78" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G78" s="62" t="s">
+      <c r="G78" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3553,11 +3543,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F79" s="76" t="e">
+      <c r="F79" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="62" t="s">
+      <c r="G79" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3580,11 +3570,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F80" s="76" t="e">
+      <c r="F80" s="75" t="e">
         <f t="shared" ref="F80:F143" si="4">SUM(D80-C80)/C80*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G80" s="63" t="s">
+      <c r="G80" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3596,10 +3586,10 @@
         <v>56</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="60"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="62"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -3616,11 +3606,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="76" t="e">
+      <c r="F82" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G82" s="62" t="s">
+      <c r="G82" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3641,11 +3631,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="76" t="e">
+      <c r="F83" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G83" s="62" t="s">
+      <c r="G83" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3666,11 +3656,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F84" s="76" t="e">
+      <c r="F84" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G84" s="62" t="s">
+      <c r="G84" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3691,11 +3681,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F85" s="76" t="e">
+      <c r="F85" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G85" s="62" t="s">
+      <c r="G85" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3716,11 +3706,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F86" s="76" t="e">
+      <c r="F86" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G86" s="62" t="s">
+      <c r="G86" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3739,11 +3729,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F87" s="76" t="e">
+      <c r="F87" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G87" s="62" t="s">
+      <c r="G87" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3762,11 +3752,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="76" t="e">
+      <c r="F88" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G88" s="62" t="s">
+      <c r="G88" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3785,11 +3775,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F89" s="76" t="e">
+      <c r="F89" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G89" s="62" t="s">
+      <c r="G89" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3810,11 +3800,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F90" s="76" t="e">
+      <c r="F90" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G90" s="62" t="s">
+      <c r="G90" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3833,11 +3823,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F91" s="76" t="e">
+      <c r="F91" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G91" s="62" t="s">
+      <c r="G91" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3856,11 +3846,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F92" s="76" t="e">
+      <c r="F92" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G92" s="62" t="s">
+      <c r="G92" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3883,11 +3873,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F93" s="76" t="e">
+      <c r="F93" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G93" s="63" t="s">
+      <c r="G93" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3899,10 +3889,10 @@
         <v>69</v>
       </c>
       <c r="C94" s="11"/>
-      <c r="D94" s="60"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="63"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="62"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
@@ -3921,11 +3911,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F95" s="76" t="e">
+      <c r="F95" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G95" s="62" t="s">
+      <c r="G95" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3946,11 +3936,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F96" s="76" t="e">
+      <c r="F96" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G96" s="62" t="s">
+      <c r="G96" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3971,11 +3961,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F97" s="76" t="e">
+      <c r="F97" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G97" s="62" t="s">
+      <c r="G97" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3996,11 +3986,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F98" s="76" t="e">
+      <c r="F98" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G98" s="62" t="s">
+      <c r="G98" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4021,11 +4011,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F99" s="76" t="e">
+      <c r="F99" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G99" s="62" t="s">
+      <c r="G99" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4046,11 +4036,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F100" s="76" t="e">
+      <c r="F100" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G100" s="62" t="s">
+      <c r="G100" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4069,11 +4059,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F101" s="76" t="e">
+      <c r="F101" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G101" s="62" t="s">
+      <c r="G101" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4094,11 +4084,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F102" s="76" t="e">
+      <c r="F102" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G102" s="62" t="s">
+      <c r="G102" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4119,11 +4109,11 @@
         <f t="shared" ref="E103:E105" si="5">D103-C103</f>
         <v>0</v>
       </c>
-      <c r="F103" s="76" t="e">
+      <c r="F103" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G103" s="62" t="s">
+      <c r="G103" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4144,11 +4134,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F104" s="76" t="e">
+      <c r="F104" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104" s="62" t="s">
+      <c r="G104" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4171,11 +4161,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F105" s="76" t="e">
+      <c r="F105" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G105" s="63" t="s">
+      <c r="G105" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4187,10 +4177,10 @@
         <v>81</v>
       </c>
       <c r="C106" s="11"/>
-      <c r="D106" s="60"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="14"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="63"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="62"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -4198,10 +4188,10 @@
         <v>121</v>
       </c>
       <c r="C107" s="11"/>
-      <c r="D107" s="60"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="14"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="63"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="62"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
@@ -4218,11 +4208,11 @@
         <f t="shared" ref="E108:E113" si="6">D108-C108</f>
         <v>0</v>
       </c>
-      <c r="F108" s="76" t="e">
+      <c r="F108" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G108" s="62" t="s">
+      <c r="G108" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4241,11 +4231,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F109" s="76" t="e">
+      <c r="F109" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G109" s="62" t="s">
+      <c r="G109" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4264,11 +4254,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F110" s="76" t="e">
+      <c r="F110" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G110" s="62" t="s">
+      <c r="G110" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4287,11 +4277,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F111" s="76" t="e">
+      <c r="F111" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G111" s="62" t="s">
+      <c r="G111" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4310,11 +4300,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F112" s="76" t="e">
+      <c r="F112" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G112" s="62" t="s">
+      <c r="G112" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4328,17 +4318,18 @@
         <v>0</v>
       </c>
       <c r="D113" s="47">
+        <f ca="1">SUM(D108:D113)</f>
         <v>0</v>
       </c>
       <c r="E113" s="14">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="F113" s="76" t="e">
+      <c r="F113" s="75" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G113" s="63" t="s">
+      <c r="G113" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4348,10 +4339,10 @@
         <v>127</v>
       </c>
       <c r="C114" s="47"/>
-      <c r="D114" s="60"/>
+      <c r="D114" s="59"/>
       <c r="E114" s="14"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="63"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="62"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
@@ -4368,11 +4359,11 @@
         <f t="shared" ref="E115:E119" si="7">D115-C115</f>
         <v>0</v>
       </c>
-      <c r="F115" s="76" t="e">
+      <c r="F115" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G115" s="62" t="s">
+      <c r="G115" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4391,11 +4382,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F116" s="76" t="e">
+      <c r="F116" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G116" s="62" t="s">
+      <c r="G116" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4414,11 +4405,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F117" s="76" t="e">
+      <c r="F117" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G117" s="62" t="s">
+      <c r="G117" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4437,11 +4428,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F118" s="76" t="e">
+      <c r="F118" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G118" s="62" t="s">
+      <c r="G118" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4462,11 +4453,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F119" s="76" t="e">
+      <c r="F119" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G119" s="63" t="s">
+      <c r="G119" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4476,10 +4467,10 @@
         <v>128</v>
       </c>
       <c r="C120" s="11"/>
-      <c r="D120" s="60"/>
+      <c r="D120" s="59"/>
       <c r="E120" s="14"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="63"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="62"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
@@ -4496,11 +4487,11 @@
         <f t="shared" ref="E121:E125" si="8">D121-C121</f>
         <v>0</v>
       </c>
-      <c r="F121" s="76" t="e">
+      <c r="F121" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G121" s="62" t="s">
+      <c r="G121" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4519,11 +4510,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F122" s="76" t="e">
+      <c r="F122" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G122" s="62" t="s">
+      <c r="G122" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4542,11 +4533,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F123" s="76" t="e">
+      <c r="F123" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G123" s="62" t="s">
+      <c r="G123" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4565,11 +4556,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F124" s="76" t="e">
+      <c r="F124" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G124" s="62" t="s">
+      <c r="G124" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4590,11 +4581,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F125" s="76" t="e">
+      <c r="F125" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G125" s="63" t="s">
+      <c r="G125" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4606,10 +4597,10 @@
         <v>91</v>
       </c>
       <c r="C126" s="11"/>
-      <c r="D126" s="60"/>
+      <c r="D126" s="59"/>
       <c r="E126" s="14"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="63"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="62"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
@@ -4619,10 +4610,10 @@
         <v>92</v>
       </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="60"/>
+      <c r="D127" s="59"/>
       <c r="E127" s="14"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="63"/>
+      <c r="F127" s="75"/>
+      <c r="G127" s="62"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
@@ -4641,11 +4632,11 @@
         <f t="shared" ref="E128:E132" si="9">D128-C128</f>
         <v>0</v>
       </c>
-      <c r="F128" s="76" t="e">
+      <c r="F128" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G128" s="62" t="s">
+      <c r="G128" s="61" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4666,11 +4657,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F129" s="76" t="e">
+      <c r="F129" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G129" s="62" t="s">
+      <c r="G129" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4691,11 +4682,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F130" s="76" t="e">
+      <c r="F130" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G130" s="62" t="s">
+      <c r="G130" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4716,11 +4707,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F131" s="76" t="e">
+      <c r="F131" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G131" s="62" t="s">
+      <c r="G131" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4731,21 +4722,21 @@
       <c r="B132" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="48">
-        <v>100000000</v>
-      </c>
-      <c r="D132" s="48">
-        <v>100000000</v>
+      <c r="C132" s="47">
+        <v>0</v>
+      </c>
+      <c r="D132" s="47">
+        <v>0</v>
       </c>
       <c r="E132" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F132" s="76">
+      <c r="F132" s="75" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="62" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G132" s="61" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4757,10 +4748,10 @@
         <v>170</v>
       </c>
       <c r="C133" s="11"/>
-      <c r="D133" s="60"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="14"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="62"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="61"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
@@ -4777,11 +4768,11 @@
         <f t="shared" ref="E134:E137" si="10">D134-C134</f>
         <v>0</v>
       </c>
-      <c r="F134" s="76" t="e">
+      <c r="F134" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G134" s="62" t="s">
+      <c r="G134" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4800,11 +4791,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F135" s="76" t="e">
+      <c r="F135" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G135" s="62" t="s">
+      <c r="G135" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4823,11 +4814,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F136" s="76" t="e">
+      <c r="F136" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G136" s="62" t="s">
+      <c r="G136" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4848,11 +4839,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F137" s="76" t="e">
+      <c r="F137" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G137" s="63" t="s">
+      <c r="G137" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4863,11 +4854,11 @@
       <c r="B138" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C138" s="49"/>
-      <c r="D138" s="60"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="14"/>
-      <c r="F138" s="76"/>
-      <c r="G138" s="49"/>
+      <c r="F138" s="75"/>
+      <c r="G138" s="48"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
@@ -4886,11 +4877,11 @@
         <f t="shared" ref="E139:E202" si="11">D139-C139</f>
         <v>0</v>
       </c>
-      <c r="F139" s="76" t="e">
+      <c r="F139" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G139" s="62" t="s">
+      <c r="G139" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4911,11 +4902,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F140" s="76" t="e">
+      <c r="F140" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G140" s="62" t="s">
+      <c r="G140" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4936,11 +4927,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F141" s="76" t="e">
+      <c r="F141" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="64" t="s">
+      <c r="G141" s="63" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4961,11 +4952,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F142" s="76" t="e">
+      <c r="F142" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G142" s="62" t="s">
+      <c r="G142" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4986,11 +4977,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F143" s="76" t="e">
+      <c r="F143" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G143" s="62" t="s">
+      <c r="G143" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5011,11 +5002,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F144" s="76" t="e">
+      <c r="F144" s="75" t="e">
         <f t="shared" ref="F144:F207" si="12">SUM(D144-C144)/C144*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G144" s="62" t="s">
+      <c r="G144" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5036,11 +5027,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F145" s="76" t="e">
+      <c r="F145" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G145" s="62" t="s">
+      <c r="G145" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5063,11 +5054,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F146" s="76" t="e">
+      <c r="F146" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G146" s="63" t="s">
+      <c r="G146" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5078,11 +5069,11 @@
       <c r="B147" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C147" s="49"/>
-      <c r="D147" s="60"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="14"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="49"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="48"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
@@ -5099,11 +5090,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F148" s="76" t="e">
+      <c r="F148" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G148" s="62" t="s">
+      <c r="G148" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5122,11 +5113,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F149" s="76" t="e">
+      <c r="F149" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G149" s="62" t="s">
+      <c r="G149" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5145,11 +5136,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F150" s="76" t="e">
+      <c r="F150" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G150" s="62" t="s">
+      <c r="G150" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5168,11 +5159,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F151" s="76" t="e">
+      <c r="F151" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G151" s="62" t="s">
+      <c r="G151" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5191,11 +5182,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F152" s="76" t="e">
+      <c r="F152" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G152" s="62" t="s">
+      <c r="G152" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5214,11 +5205,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F153" s="76" t="e">
+      <c r="F153" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G153" s="62" t="s">
+      <c r="G153" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5239,11 +5230,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F154" s="76" t="e">
+      <c r="F154" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G154" s="62" t="s">
+      <c r="G154" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5264,11 +5255,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F155" s="76" t="e">
+      <c r="F155" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G155" s="62" t="s">
+      <c r="G155" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5289,11 +5280,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F156" s="76" t="e">
+      <c r="F156" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G156" s="62" t="s">
+      <c r="G156" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5314,11 +5305,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F157" s="76" t="e">
+      <c r="F157" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G157" s="62" t="s">
+      <c r="G157" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5339,11 +5330,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F158" s="76" t="e">
+      <c r="F158" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G158" s="65" t="s">
+      <c r="G158" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5366,11 +5357,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F159" s="76" t="e">
+      <c r="F159" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G159" s="63" t="s">
+      <c r="G159" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5381,11 +5372,11 @@
       <c r="B160" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C160" s="49"/>
-      <c r="D160" s="60"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="59"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="49"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
@@ -5404,11 +5395,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F161" s="76" t="e">
+      <c r="F161" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G161" s="62" t="s">
+      <c r="G161" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5429,11 +5420,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F162" s="76" t="e">
+      <c r="F162" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G162" s="62" t="s">
+      <c r="G162" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5454,11 +5445,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F163" s="76" t="e">
+      <c r="F163" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G163" s="62" t="s">
+      <c r="G163" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5479,11 +5470,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F164" s="76" t="e">
+      <c r="F164" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G164" s="62" t="s">
+      <c r="G164" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5504,11 +5495,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F165" s="76" t="e">
+      <c r="F165" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G165" s="62" t="s">
+      <c r="G165" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5529,11 +5520,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F166" s="76" t="e">
+      <c r="F166" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G166" s="62" t="s">
+      <c r="G166" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5552,11 +5543,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F167" s="76" t="e">
+      <c r="F167" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G167" s="62" t="s">
+      <c r="G167" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5577,11 +5568,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F168" s="76" t="e">
+      <c r="F168" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G168" s="62" t="s">
+      <c r="G168" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5600,11 +5591,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F169" s="76" t="e">
+      <c r="F169" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G169" s="62" t="s">
+      <c r="G169" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5625,11 +5616,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F170" s="76" t="e">
+      <c r="F170" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G170" s="62" t="s">
+      <c r="G170" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5652,11 +5643,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F171" s="76" t="e">
+      <c r="F171" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G171" s="63" t="s">
+      <c r="G171" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5668,10 +5659,10 @@
         <v>103</v>
       </c>
       <c r="C172" s="11"/>
-      <c r="D172" s="60"/>
+      <c r="D172" s="59"/>
       <c r="E172" s="14"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="63"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="62"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
@@ -5690,11 +5681,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F173" s="76" t="e">
+      <c r="F173" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G173" s="62" t="s">
+      <c r="G173" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5715,11 +5706,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F174" s="76" t="e">
+      <c r="F174" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G174" s="62" t="s">
+      <c r="G174" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5740,11 +5731,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F175" s="76" t="e">
+      <c r="F175" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G175" s="62" t="s">
+      <c r="G175" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5765,11 +5756,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F176" s="76" t="e">
+      <c r="F176" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G176" s="62" t="s">
+      <c r="G176" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5790,11 +5781,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F177" s="76" t="e">
+      <c r="F177" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G177" s="62" t="s">
+      <c r="G177" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5815,11 +5806,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F178" s="76" t="e">
+      <c r="F178" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G178" s="62" t="s">
+      <c r="G178" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5842,11 +5833,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F179" s="76" t="e">
+      <c r="F179" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G179" s="63" t="s">
+      <c r="G179" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5858,10 +5849,10 @@
         <v>105</v>
       </c>
       <c r="C180" s="11"/>
-      <c r="D180" s="60"/>
+      <c r="D180" s="59"/>
       <c r="E180" s="14"/>
-      <c r="F180" s="76"/>
-      <c r="G180" s="63"/>
+      <c r="F180" s="75"/>
+      <c r="G180" s="62"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
@@ -5880,11 +5871,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F181" s="76" t="e">
+      <c r="F181" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G181" s="62" t="s">
+      <c r="G181" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5905,11 +5896,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F182" s="76" t="e">
+      <c r="F182" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G182" s="62" t="s">
+      <c r="G182" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5930,11 +5921,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F183" s="76" t="e">
+      <c r="F183" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G183" s="62" t="s">
+      <c r="G183" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5953,11 +5944,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F184" s="76" t="e">
+      <c r="F184" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G184" s="62" t="s">
+      <c r="G184" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5978,11 +5969,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F185" s="76" t="e">
+      <c r="F185" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G185" s="62" t="s">
+      <c r="G185" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6003,11 +5994,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F186" s="76" t="e">
+      <c r="F186" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G186" s="62" t="s">
+      <c r="G186" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6028,11 +6019,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F187" s="76" t="e">
+      <c r="F187" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G187" s="62" t="s">
+      <c r="G187" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6053,11 +6044,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F188" s="76" t="e">
+      <c r="F188" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G188" s="65" t="s">
+      <c r="G188" s="64" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6076,11 +6067,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F189" s="76" t="e">
+      <c r="F189" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G189" s="62" t="s">
+      <c r="G189" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6101,11 +6092,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F190" s="76" t="e">
+      <c r="F190" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G190" s="62" t="s">
+      <c r="G190" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6128,11 +6119,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F191" s="76" t="e">
+      <c r="F191" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G191" s="63" t="s">
+      <c r="G191" s="62" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6144,10 +6135,10 @@
         <v>267</v>
       </c>
       <c r="C192" s="11"/>
-      <c r="D192" s="60"/>
+      <c r="D192" s="59"/>
       <c r="E192" s="14"/>
-      <c r="F192" s="76"/>
-      <c r="G192" s="63"/>
+      <c r="F192" s="75"/>
+      <c r="G192" s="62"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
@@ -6166,11 +6157,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F193" s="76" t="e">
+      <c r="F193" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G193" s="62" t="s">
+      <c r="G193" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6191,11 +6182,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F194" s="76" t="e">
+      <c r="F194" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G194" s="62" t="s">
+      <c r="G194" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6216,11 +6207,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F195" s="76" t="e">
+      <c r="F195" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G195" s="62" t="s">
+      <c r="G195" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6241,11 +6232,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F196" s="76" t="e">
+      <c r="F196" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G196" s="62" t="s">
+      <c r="G196" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6266,11 +6257,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F197" s="76" t="e">
+      <c r="F197" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G197" s="62" t="s">
+      <c r="G197" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6291,11 +6282,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F198" s="76" t="e">
+      <c r="F198" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G198" s="62" t="s">
+      <c r="G198" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6316,11 +6307,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F199" s="76" t="e">
+      <c r="F199" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G199" s="62" t="s">
+      <c r="G199" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6343,11 +6334,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F200" s="76" t="e">
+      <c r="F200" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G200" s="63" t="s">
+      <c r="G200" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6359,10 +6350,10 @@
         <v>117</v>
       </c>
       <c r="C201" s="11"/>
-      <c r="D201" s="60"/>
+      <c r="D201" s="59"/>
       <c r="E201" s="14"/>
-      <c r="F201" s="76"/>
-      <c r="G201" s="63"/>
+      <c r="F201" s="75"/>
+      <c r="G201" s="62"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
@@ -6379,11 +6370,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F202" s="76" t="e">
+      <c r="F202" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G202" s="62" t="s">
+      <c r="G202" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6402,11 +6393,11 @@
         <f t="shared" ref="E203:E213" si="13">D203-C203</f>
         <v>0</v>
       </c>
-      <c r="F203" s="76" t="e">
+      <c r="F203" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G203" s="62" t="s">
+      <c r="G203" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6425,11 +6416,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F204" s="76" t="e">
+      <c r="F204" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G204" s="62" t="s">
+      <c r="G204" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6448,11 +6439,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F205" s="76" t="e">
+      <c r="F205" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G205" s="62" t="s">
+      <c r="G205" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6471,11 +6462,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F206" s="76" t="e">
+      <c r="F206" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G206" s="62" t="s">
+      <c r="G206" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6494,11 +6485,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F207" s="76" t="e">
+      <c r="F207" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G207" s="62" t="s">
+      <c r="G207" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6517,11 +6508,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F208" s="76" t="e">
+      <c r="F208" s="75" t="e">
         <f t="shared" ref="F208:F269" si="14">SUM(D208-C208)/C208*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G208" s="62" t="s">
+      <c r="G208" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6542,11 +6533,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F209" s="76" t="e">
+      <c r="F209" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G209" s="62" t="s">
+      <c r="G209" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6567,11 +6558,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F210" s="76" t="e">
+      <c r="F210" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G210" s="62" t="s">
+      <c r="G210" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6592,11 +6583,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F211" s="76" t="e">
+      <c r="F211" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G211" s="62" t="s">
+      <c r="G211" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6617,11 +6608,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F212" s="76" t="e">
+      <c r="F212" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G212" s="62" t="s">
+      <c r="G212" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6644,11 +6635,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F213" s="76" t="e">
+      <c r="F213" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G213" s="63" t="s">
+      <c r="G213" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6660,10 +6651,10 @@
         <v>118</v>
       </c>
       <c r="C214" s="11"/>
-      <c r="D214" s="60"/>
+      <c r="D214" s="59"/>
       <c r="E214" s="14"/>
-      <c r="F214" s="76"/>
-      <c r="G214" s="66"/>
+      <c r="F214" s="75"/>
+      <c r="G214" s="65"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
@@ -6682,11 +6673,11 @@
         <f t="shared" ref="E215:E225" si="15">D215-C215</f>
         <v>0</v>
       </c>
-      <c r="F215" s="76" t="e">
+      <c r="F215" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G215" s="62" t="s">
+      <c r="G215" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6707,11 +6698,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F216" s="76" t="e">
+      <c r="F216" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G216" s="62" t="s">
+      <c r="G216" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6732,11 +6723,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F217" s="76" t="e">
+      <c r="F217" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G217" s="62" t="s">
+      <c r="G217" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6757,11 +6748,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F218" s="76" t="e">
+      <c r="F218" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G218" s="62" t="s">
+      <c r="G218" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6782,11 +6773,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F219" s="76" t="e">
+      <c r="F219" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G219" s="62" t="s">
+      <c r="G219" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6807,11 +6798,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F220" s="76" t="e">
+      <c r="F220" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G220" s="62" t="s">
+      <c r="G220" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6830,11 +6821,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F221" s="76" t="e">
+      <c r="F221" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G221" s="62" t="s">
+      <c r="G221" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6853,11 +6844,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F222" s="76" t="e">
+      <c r="F222" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G222" s="62" t="s">
+      <c r="G222" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6878,11 +6869,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F223" s="76" t="e">
+      <c r="F223" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G223" s="62" t="s">
+      <c r="G223" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6903,11 +6894,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F224" s="76" t="e">
+      <c r="F224" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G224" s="62" t="s">
+      <c r="G224" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6930,11 +6921,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F225" s="76" t="e">
+      <c r="F225" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G225" s="63" t="s">
+      <c r="G225" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6946,10 +6937,10 @@
         <v>120</v>
       </c>
       <c r="C226" s="11"/>
-      <c r="D226" s="60"/>
+      <c r="D226" s="59"/>
       <c r="E226" s="14"/>
-      <c r="F226" s="76"/>
-      <c r="G226" s="63"/>
+      <c r="F226" s="75"/>
+      <c r="G226" s="62"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
@@ -6959,10 +6950,10 @@
         <v>121</v>
       </c>
       <c r="C227" s="11"/>
-      <c r="D227" s="60"/>
+      <c r="D227" s="59"/>
       <c r="E227" s="14"/>
-      <c r="F227" s="76"/>
-      <c r="G227" s="62"/>
+      <c r="F227" s="75"/>
+      <c r="G227" s="61"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
@@ -6981,11 +6972,11 @@
         <f t="shared" ref="E228:E234" si="16">D228-C228</f>
         <v>0</v>
       </c>
-      <c r="F228" s="76" t="e">
+      <c r="F228" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G228" s="62" t="s">
+      <c r="G228" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7006,11 +6997,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F229" s="76" t="e">
+      <c r="F229" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G229" s="62" t="s">
+      <c r="G229" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7031,11 +7022,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F230" s="76" t="e">
+      <c r="F230" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G230" s="62" t="s">
+      <c r="G230" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7056,11 +7047,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F231" s="76" t="e">
+      <c r="F231" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G231" s="62" t="s">
+      <c r="G231" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7079,11 +7070,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F232" s="76" t="e">
+      <c r="F232" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G232" s="62" t="s">
+      <c r="G232" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7104,11 +7095,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F233" s="76" t="e">
+      <c r="F233" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G233" s="62" t="s">
+      <c r="G233" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7131,11 +7122,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F234" s="76" t="e">
+      <c r="F234" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G234" s="63" t="s">
+      <c r="G234" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7147,10 +7138,10 @@
         <v>127</v>
       </c>
       <c r="C235" s="11"/>
-      <c r="D235" s="60"/>
+      <c r="D235" s="59"/>
       <c r="E235" s="14"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="63"/>
+      <c r="F235" s="75"/>
+      <c r="G235" s="62"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
@@ -7169,11 +7160,11 @@
         <f t="shared" ref="E236:E246" si="17">D236-C236</f>
         <v>0</v>
       </c>
-      <c r="F236" s="76" t="e">
+      <c r="F236" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G236" s="62" t="s">
+      <c r="G236" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7194,11 +7185,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F237" s="76" t="e">
+      <c r="F237" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G237" s="62" t="s">
+      <c r="G237" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7219,11 +7210,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F238" s="76" t="e">
+      <c r="F238" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G238" s="62" t="s">
+      <c r="G238" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7244,11 +7235,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F239" s="76" t="e">
+      <c r="F239" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G239" s="62" t="s">
+      <c r="G239" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7271,11 +7262,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F240" s="76" t="e">
+      <c r="F240" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G240" s="63" t="s">
+      <c r="G240" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7287,10 +7278,10 @@
         <v>128</v>
       </c>
       <c r="C241" s="11"/>
-      <c r="D241" s="60"/>
+      <c r="D241" s="59"/>
       <c r="E241" s="14"/>
-      <c r="F241" s="76"/>
-      <c r="G241" s="63"/>
+      <c r="F241" s="75"/>
+      <c r="G241" s="62"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
@@ -7309,11 +7300,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F242" s="76" t="e">
+      <c r="F242" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G242" s="62" t="s">
+      <c r="G242" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7334,11 +7325,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F243" s="76" t="e">
+      <c r="F243" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G243" s="62" t="s">
+      <c r="G243" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7359,11 +7350,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F244" s="76" t="e">
+      <c r="F244" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G244" s="62" t="s">
+      <c r="G244" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7384,11 +7375,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F245" s="76" t="e">
+      <c r="F245" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G245" s="62" t="s">
+      <c r="G245" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7411,11 +7402,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F246" s="76" t="e">
+      <c r="F246" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G246" s="63" t="s">
+      <c r="G246" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7427,10 +7418,10 @@
         <v>129</v>
       </c>
       <c r="C247" s="11"/>
-      <c r="D247" s="60"/>
+      <c r="D247" s="59"/>
       <c r="E247" s="14"/>
-      <c r="F247" s="76"/>
-      <c r="G247" s="63"/>
+      <c r="F247" s="75"/>
+      <c r="G247" s="62"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
@@ -7442,10 +7433,10 @@
       <c r="C248" s="47">
         <v>0</v>
       </c>
-      <c r="D248" s="60"/>
+      <c r="D248" s="59"/>
       <c r="E248" s="14"/>
-      <c r="F248" s="76"/>
-      <c r="G248" s="62"/>
+      <c r="F248" s="75"/>
+      <c r="G248" s="61"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
@@ -7464,11 +7455,11 @@
         <f t="shared" ref="E249:E263" si="18">D249-C249</f>
         <v>0</v>
       </c>
-      <c r="F249" s="76" t="e">
+      <c r="F249" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G249" s="62" t="s">
+      <c r="G249" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7489,11 +7480,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F250" s="76" t="e">
+      <c r="F250" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G250" s="62" t="s">
+      <c r="G250" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7514,11 +7505,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F251" s="76" t="e">
+      <c r="F251" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G251" s="62" t="s">
+      <c r="G251" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7537,11 +7528,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F252" s="76" t="e">
+      <c r="F252" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G252" s="62" t="s">
+      <c r="G252" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7560,11 +7551,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F253" s="76" t="e">
+      <c r="F253" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G253" s="62" t="s">
+      <c r="G253" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7583,11 +7574,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F254" s="76" t="e">
+      <c r="F254" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G254" s="62" t="s">
+      <c r="G254" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7606,11 +7597,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F255" s="76" t="e">
+      <c r="F255" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G255" s="62" t="s">
+      <c r="G255" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7629,11 +7620,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F256" s="76" t="e">
+      <c r="F256" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G256" s="62" t="s">
+      <c r="G256" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7652,11 +7643,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F257" s="76" t="e">
+      <c r="F257" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G257" s="62" t="s">
+      <c r="G257" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7675,11 +7666,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F258" s="76" t="e">
+      <c r="F258" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G258" s="62" t="s">
+      <c r="G258" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7698,11 +7689,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F259" s="76" t="e">
+      <c r="F259" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G259" s="62" t="s">
+      <c r="G259" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7723,11 +7714,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F260" s="76" t="e">
+      <c r="F260" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G260" s="62" t="s">
+      <c r="G260" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7748,11 +7739,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F261" s="76" t="e">
+      <c r="F261" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G261" s="62" t="s">
+      <c r="G261" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7773,11 +7764,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F262" s="76" t="e">
+      <c r="F262" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G262" s="62" t="s">
+      <c r="G262" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7798,11 +7789,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F263" s="76" t="e">
+      <c r="F263" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G263" s="62" t="s">
+      <c r="G263" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7818,8 +7809,8 @@
         <v>0</v>
       </c>
       <c r="E264" s="14"/>
-      <c r="F264" s="76"/>
-      <c r="G264" s="62"/>
+      <c r="F264" s="75"/>
+      <c r="G264" s="61"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
@@ -7836,11 +7827,11 @@
         <f t="shared" ref="E265:E269" si="19">D265-C265</f>
         <v>0</v>
       </c>
-      <c r="F265" s="76" t="e">
+      <c r="F265" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G265" s="62" t="s">
+      <c r="G265" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7859,11 +7850,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F266" s="76" t="e">
+      <c r="F266" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G266" s="62" t="s">
+      <c r="G266" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7882,11 +7873,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F267" s="76" t="e">
+      <c r="F267" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G267" s="62" t="s">
+      <c r="G267" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7905,11 +7896,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F268" s="76" t="e">
+      <c r="F268" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G268" s="62" t="s">
+      <c r="G268" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7930,11 +7921,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F269" s="76" t="e">
+      <c r="F269" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G269" s="63" t="s">
+      <c r="G269" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7946,10 +7937,10 @@
         <v>150</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="60"/>
+      <c r="D270" s="59"/>
       <c r="E270" s="14"/>
-      <c r="F270" s="76"/>
-      <c r="G270" s="63"/>
+      <c r="F270" s="75"/>
+      <c r="G270" s="62"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
@@ -7968,11 +7959,11 @@
         <f t="shared" ref="E271:E279" si="20">D271-C271</f>
         <v>0</v>
       </c>
-      <c r="F271" s="76" t="e">
+      <c r="F271" s="75" t="e">
         <f t="shared" ref="F271:F334" si="21">SUM(D271-C271)/C271*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G271" s="62" t="s">
+      <c r="G271" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7993,11 +7984,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F272" s="76" t="e">
+      <c r="F272" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G272" s="62" t="s">
+      <c r="G272" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8018,11 +8009,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F273" s="76" t="e">
+      <c r="F273" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G273" s="62" t="s">
+      <c r="G273" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8043,11 +8034,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F274" s="76" t="e">
+      <c r="F274" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G274" s="62" t="s">
+      <c r="G274" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8068,11 +8059,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F275" s="76" t="e">
+      <c r="F275" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G275" s="62" t="s">
+      <c r="G275" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8093,11 +8084,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F276" s="76" t="e">
+      <c r="F276" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G276" s="62" t="s">
+      <c r="G276" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8118,11 +8109,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F277" s="76" t="e">
+      <c r="F277" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G277" s="62" t="s">
+      <c r="G277" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8141,11 +8132,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F278" s="76" t="e">
+      <c r="F278" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G278" s="62" t="s">
+      <c r="G278" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8168,11 +8159,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F279" s="76" t="e">
+      <c r="F279" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G279" s="63" t="s">
+      <c r="G279" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8184,10 +8175,10 @@
         <v>159</v>
       </c>
       <c r="C280" s="11"/>
-      <c r="D280" s="60"/>
+      <c r="D280" s="59"/>
       <c r="E280" s="14"/>
-      <c r="F280" s="76"/>
-      <c r="G280" s="63"/>
+      <c r="F280" s="75"/>
+      <c r="G280" s="62"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
@@ -8206,11 +8197,11 @@
         <f t="shared" ref="E281:E285" si="22">D281-C281</f>
         <v>0</v>
       </c>
-      <c r="F281" s="76" t="e">
+      <c r="F281" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G281" s="62" t="s">
+      <c r="G281" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8231,11 +8222,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F282" s="76" t="e">
+      <c r="F282" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G282" s="62" t="s">
+      <c r="G282" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8256,11 +8247,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F283" s="76" t="e">
+      <c r="F283" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G283" s="62" t="s">
+      <c r="G283" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8281,11 +8272,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F284" s="76" t="e">
+      <c r="F284" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G284" s="62" t="s">
+      <c r="G284" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8306,11 +8297,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F285" s="76" t="e">
+      <c r="F285" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G285" s="62" t="s">
+      <c r="G285" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8322,10 +8313,10 @@
         <v>161</v>
       </c>
       <c r="C286" s="11"/>
-      <c r="D286" s="60"/>
+      <c r="D286" s="59"/>
       <c r="E286" s="14"/>
-      <c r="F286" s="76"/>
-      <c r="G286" s="63"/>
+      <c r="F286" s="75"/>
+      <c r="G286" s="62"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
@@ -8344,11 +8335,11 @@
         <f t="shared" ref="E287:E291" si="23">D287-C287</f>
         <v>0</v>
       </c>
-      <c r="F287" s="76" t="e">
+      <c r="F287" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G287" s="62" t="s">
+      <c r="G287" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8369,11 +8360,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F288" s="76" t="e">
+      <c r="F288" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G288" s="62" t="s">
+      <c r="G288" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8392,11 +8383,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F289" s="76" t="e">
+      <c r="F289" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G289" s="62" t="s">
+      <c r="G289" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8417,11 +8408,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F290" s="76" t="e">
+      <c r="F290" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G290" s="62" t="s">
+      <c r="G290" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8442,11 +8433,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F291" s="76" t="e">
+      <c r="F291" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G291" s="62" t="s">
+      <c r="G291" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8458,10 +8449,10 @@
         <v>219</v>
       </c>
       <c r="C292" s="11"/>
-      <c r="D292" s="60"/>
+      <c r="D292" s="59"/>
       <c r="E292" s="14"/>
-      <c r="F292" s="76"/>
-      <c r="G292" s="63"/>
+      <c r="F292" s="75"/>
+      <c r="G292" s="62"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
@@ -8478,11 +8469,11 @@
         <f t="shared" ref="E293:E297" si="24">D293-C293</f>
         <v>0</v>
       </c>
-      <c r="F293" s="76" t="e">
+      <c r="F293" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G293" s="62" t="s">
+      <c r="G293" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8501,11 +8492,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F294" s="76" t="e">
+      <c r="F294" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G294" s="62" t="s">
+      <c r="G294" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8524,11 +8515,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F295" s="76" t="e">
+      <c r="F295" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G295" s="62" t="s">
+      <c r="G295" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8547,11 +8538,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F296" s="76" t="e">
+      <c r="F296" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G296" s="62" t="s">
+      <c r="G296" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8570,11 +8561,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F297" s="76" t="e">
+      <c r="F297" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G297" s="62" t="s">
+      <c r="G297" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8586,10 +8577,10 @@
         <v>220</v>
       </c>
       <c r="C298" s="11"/>
-      <c r="D298" s="60"/>
+      <c r="D298" s="59"/>
       <c r="E298" s="14"/>
-      <c r="F298" s="76"/>
-      <c r="G298" s="63"/>
+      <c r="F298" s="75"/>
+      <c r="G298" s="62"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
@@ -8608,11 +8599,11 @@
         <f t="shared" ref="E299:E303" si="25">D299-C299</f>
         <v>0</v>
       </c>
-      <c r="F299" s="76" t="e">
+      <c r="F299" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G299" s="62" t="s">
+      <c r="G299" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8633,11 +8624,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F300" s="76" t="e">
+      <c r="F300" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G300" s="62" t="s">
+      <c r="G300" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8658,11 +8649,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F301" s="76" t="e">
+      <c r="F301" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G301" s="62" t="s">
+      <c r="G301" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8683,11 +8674,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F302" s="76" t="e">
+      <c r="F302" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G302" s="62" t="s">
+      <c r="G302" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8708,11 +8699,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F303" s="76" t="e">
+      <c r="F303" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G303" s="62" t="s">
+      <c r="G303" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8723,11 +8714,11 @@
       <c r="B304" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C304" s="49"/>
-      <c r="D304" s="60"/>
+      <c r="C304" s="48"/>
+      <c r="D304" s="59"/>
       <c r="E304" s="14"/>
-      <c r="F304" s="76"/>
-      <c r="G304" s="49"/>
+      <c r="F304" s="75"/>
+      <c r="G304" s="48"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
@@ -8744,11 +8735,11 @@
         <f t="shared" ref="E305:E309" si="26">D305-C305</f>
         <v>0</v>
       </c>
-      <c r="F305" s="76" t="e">
+      <c r="F305" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G305" s="62" t="s">
+      <c r="G305" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8767,11 +8758,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F306" s="76" t="e">
+      <c r="F306" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G306" s="62" t="s">
+      <c r="G306" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8790,11 +8781,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F307" s="76" t="e">
+      <c r="F307" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G307" s="62" t="s">
+      <c r="G307" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8813,11 +8804,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F308" s="76" t="e">
+      <c r="F308" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G308" s="62" t="s">
+      <c r="G308" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8836,11 +8827,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F309" s="76" t="e">
+      <c r="F309" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G309" s="62" t="s">
+      <c r="G309" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8851,11 +8842,11 @@
       <c r="B310" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C310" s="49"/>
-      <c r="D310" s="60"/>
+      <c r="C310" s="48"/>
+      <c r="D310" s="59"/>
       <c r="E310" s="14"/>
-      <c r="F310" s="76"/>
-      <c r="G310" s="49"/>
+      <c r="F310" s="75"/>
+      <c r="G310" s="48"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
@@ -8872,11 +8863,11 @@
         <f t="shared" ref="E311:E315" si="27">D311-C311</f>
         <v>0</v>
       </c>
-      <c r="F311" s="76" t="e">
+      <c r="F311" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G311" s="62" t="s">
+      <c r="G311" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8895,11 +8886,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F312" s="76" t="e">
+      <c r="F312" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G312" s="62" t="s">
+      <c r="G312" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8918,11 +8909,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F313" s="76" t="e">
+      <c r="F313" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G313" s="62" t="s">
+      <c r="G313" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8941,11 +8932,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F314" s="76" t="e">
+      <c r="F314" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G314" s="62" t="s">
+      <c r="G314" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8964,11 +8955,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F315" s="76" t="e">
+      <c r="F315" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G315" s="62" t="s">
+      <c r="G315" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8979,11 +8970,11 @@
       <c r="B316" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C316" s="49"/>
-      <c r="D316" s="60"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="59"/>
       <c r="E316" s="14"/>
-      <c r="F316" s="76"/>
-      <c r="G316" s="49"/>
+      <c r="F316" s="75"/>
+      <c r="G316" s="48"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
@@ -9000,11 +8991,11 @@
         <f t="shared" ref="E317:E321" si="28">D317-C317</f>
         <v>0</v>
       </c>
-      <c r="F317" s="76" t="e">
+      <c r="F317" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G317" s="62" t="s">
+      <c r="G317" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9023,11 +9014,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F318" s="76" t="e">
+      <c r="F318" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G318" s="62" t="s">
+      <c r="G318" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9046,11 +9037,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F319" s="76" t="e">
+      <c r="F319" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G319" s="62" t="s">
+      <c r="G319" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9069,11 +9060,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F320" s="76" t="e">
+      <c r="F320" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G320" s="62" t="s">
+      <c r="G320" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9092,11 +9083,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F321" s="76" t="e">
+      <c r="F321" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G321" s="62" t="s">
+      <c r="G321" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9114,8 +9105,8 @@
         <v>0</v>
       </c>
       <c r="E322" s="14"/>
-      <c r="F322" s="76"/>
-      <c r="G322" s="63"/>
+      <c r="F322" s="75"/>
+      <c r="G322" s="62"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
@@ -9132,11 +9123,11 @@
         <f t="shared" ref="E323:E329" si="29">D323-C323</f>
         <v>0</v>
       </c>
-      <c r="F323" s="76" t="e">
+      <c r="F323" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G323" s="62" t="s">
+      <c r="G323" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9157,11 +9148,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F324" s="76" t="e">
+      <c r="F324" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G324" s="62" t="s">
+      <c r="G324" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9182,11 +9173,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F325" s="76" t="e">
+      <c r="F325" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G325" s="62" t="s">
+      <c r="G325" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9207,11 +9198,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F326" s="76" t="e">
+      <c r="F326" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G326" s="62" t="s">
+      <c r="G326" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9232,11 +9223,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F327" s="76" t="e">
+      <c r="F327" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G327" s="62" t="s">
+      <c r="G327" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9257,11 +9248,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F328" s="76" t="e">
+      <c r="F328" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G328" s="62" t="s">
+      <c r="G328" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9280,11 +9271,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F329" s="76" t="e">
+      <c r="F329" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G329" s="62" t="s">
+      <c r="G329" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9302,8 +9293,8 @@
         <v>0</v>
       </c>
       <c r="E330" s="14"/>
-      <c r="F330" s="76"/>
-      <c r="G330" s="62"/>
+      <c r="F330" s="75"/>
+      <c r="G330" s="61"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
@@ -9320,11 +9311,11 @@
         <f t="shared" ref="E331:E334" si="30">D331-C331</f>
         <v>0</v>
       </c>
-      <c r="F331" s="76" t="e">
+      <c r="F331" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G331" s="62" t="s">
+      <c r="G331" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9343,11 +9334,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F332" s="76" t="e">
+      <c r="F332" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G332" s="62" t="s">
+      <c r="G332" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9366,11 +9357,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F333" s="76" t="e">
+      <c r="F333" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G333" s="62" t="s">
+      <c r="G333" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9391,11 +9382,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F334" s="76" t="e">
+      <c r="F334" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G334" s="62" t="s">
+      <c r="G334" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9406,11 +9397,11 @@
       <c r="B335" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C335" s="50"/>
-      <c r="D335" s="60"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="59"/>
       <c r="E335" s="14"/>
-      <c r="F335" s="76"/>
-      <c r="G335" s="62"/>
+      <c r="F335" s="75"/>
+      <c r="G335" s="61"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
@@ -9419,22 +9410,22 @@
       <c r="B336" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C336" s="51"/>
-      <c r="D336" s="60"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="59"/>
       <c r="E336" s="14"/>
-      <c r="F336" s="76"/>
-      <c r="G336" s="62"/>
+      <c r="F336" s="75"/>
+      <c r="G336" s="61"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C337" s="52"/>
-      <c r="D337" s="60"/>
+      <c r="C337" s="51"/>
+      <c r="D337" s="59"/>
       <c r="E337" s="14"/>
-      <c r="F337" s="76"/>
-      <c r="G337" s="62"/>
+      <c r="F337" s="75"/>
+      <c r="G337" s="61"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
@@ -9451,11 +9442,11 @@
         <f t="shared" ref="E338:E344" si="31">D338-C338</f>
         <v>0</v>
       </c>
-      <c r="F338" s="76" t="e">
+      <c r="F338" s="75" t="e">
         <f t="shared" ref="F338:F399" si="32">SUM(D338-C338)/C338*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G338" s="67" t="s">
+      <c r="G338" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9474,11 +9465,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F339" s="76" t="e">
+      <c r="F339" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G339" s="67" t="s">
+      <c r="G339" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9497,11 +9488,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F340" s="76" t="e">
+      <c r="F340" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G340" s="67" t="s">
+      <c r="G340" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9520,11 +9511,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F341" s="76" t="e">
+      <c r="F341" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G341" s="67" t="s">
+      <c r="G341" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9543,11 +9534,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F342" s="76" t="e">
+      <c r="F342" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G342" s="67" t="s">
+      <c r="G342" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9566,11 +9557,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F343" s="76" t="e">
+      <c r="F343" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G343" s="67" t="s">
+      <c r="G343" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9591,11 +9582,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F344" s="76" t="e">
+      <c r="F344" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G344" s="68" t="s">
+      <c r="G344" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9604,11 +9595,11 @@
       <c r="B345" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C345" s="52"/>
-      <c r="D345" s="60"/>
+      <c r="C345" s="51"/>
+      <c r="D345" s="59"/>
       <c r="E345" s="14"/>
-      <c r="F345" s="76"/>
-      <c r="G345" s="62"/>
+      <c r="F345" s="75"/>
+      <c r="G345" s="61"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
@@ -9625,11 +9616,11 @@
         <f t="shared" ref="E346:E350" si="33">D346-C346</f>
         <v>0</v>
       </c>
-      <c r="F346" s="76" t="e">
+      <c r="F346" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G346" s="67" t="s">
+      <c r="G346" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9648,11 +9639,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F347" s="76" t="e">
+      <c r="F347" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G347" s="67" t="s">
+      <c r="G347" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9671,11 +9662,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F348" s="76" t="e">
+      <c r="F348" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G348" s="67" t="s">
+      <c r="G348" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9694,11 +9685,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F349" s="76" t="e">
+      <c r="F349" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G349" s="67" t="s">
+      <c r="G349" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9719,11 +9710,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F350" s="76" t="e">
+      <c r="F350" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G350" s="67" t="s">
+      <c r="G350" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9732,11 +9723,11 @@
       <c r="B351" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C351" s="53"/>
-      <c r="D351" s="60"/>
+      <c r="C351" s="52"/>
+      <c r="D351" s="59"/>
       <c r="E351" s="14"/>
-      <c r="F351" s="76"/>
-      <c r="G351" s="67"/>
+      <c r="F351" s="75"/>
+      <c r="G351" s="66"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="13"/>
@@ -9753,11 +9744,11 @@
         <f t="shared" ref="E352:E356" si="34">D352-C352</f>
         <v>0</v>
       </c>
-      <c r="F352" s="76" t="e">
+      <c r="F352" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G352" s="67" t="s">
+      <c r="G352" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9776,11 +9767,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F353" s="76" t="e">
+      <c r="F353" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G353" s="67" t="s">
+      <c r="G353" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9799,11 +9790,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F354" s="76" t="e">
+      <c r="F354" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G354" s="67" t="s">
+      <c r="G354" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9822,11 +9813,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F355" s="76" t="e">
+      <c r="F355" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G355" s="67" t="s">
+      <c r="G355" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9847,11 +9838,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F356" s="76" t="e">
+      <c r="F356" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G356" s="68" t="s">
+      <c r="G356" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9860,11 +9851,11 @@
       <c r="B357" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C357" s="52"/>
-      <c r="D357" s="60"/>
+      <c r="C357" s="51"/>
+      <c r="D357" s="59"/>
       <c r="E357" s="14"/>
-      <c r="F357" s="76"/>
-      <c r="G357" s="62"/>
+      <c r="F357" s="75"/>
+      <c r="G357" s="61"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
@@ -9881,11 +9872,11 @@
         <f t="shared" ref="E358:E365" si="35">D358-C358</f>
         <v>0</v>
       </c>
-      <c r="F358" s="76" t="e">
+      <c r="F358" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G358" s="67" t="s">
+      <c r="G358" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9904,11 +9895,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F359" s="76" t="e">
+      <c r="F359" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G359" s="67" t="s">
+      <c r="G359" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9927,11 +9918,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F360" s="76" t="e">
+      <c r="F360" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G360" s="67" t="s">
+      <c r="G360" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9950,11 +9941,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F361" s="76" t="e">
+      <c r="F361" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G361" s="67" t="s">
+      <c r="G361" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9973,11 +9964,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F362" s="76" t="e">
+      <c r="F362" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G362" s="67" t="s">
+      <c r="G362" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9996,11 +9987,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F363" s="76" t="e">
+      <c r="F363" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G363" s="67" t="s">
+      <c r="G363" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10019,11 +10010,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F364" s="76" t="e">
+      <c r="F364" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G364" s="67" t="s">
+      <c r="G364" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10044,11 +10035,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F365" s="76" t="e">
+      <c r="F365" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G365" s="68" t="s">
+      <c r="G365" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10059,11 +10050,11 @@
       <c r="B366" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C366" s="51"/>
-      <c r="D366" s="60"/>
+      <c r="C366" s="50"/>
+      <c r="D366" s="59"/>
       <c r="E366" s="14"/>
-      <c r="F366" s="76"/>
-      <c r="G366" s="51"/>
+      <c r="F366" s="75"/>
+      <c r="G366" s="50"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="26">
@@ -10072,11 +10063,11 @@
       <c r="B367" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C367" s="51"/>
+      <c r="C367" s="50"/>
       <c r="D367" s="47"/>
       <c r="E367" s="14"/>
-      <c r="F367" s="76"/>
-      <c r="G367" s="62"/>
+      <c r="F367" s="75"/>
+      <c r="G367" s="61"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="26"/>
@@ -10093,11 +10084,11 @@
         <f t="shared" ref="E368:E372" si="36">D368-C368</f>
         <v>0</v>
       </c>
-      <c r="F368" s="76" t="e">
+      <c r="F368" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G368" s="67" t="s">
+      <c r="G368" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10116,11 +10107,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F369" s="76" t="e">
+      <c r="F369" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G369" s="67" t="s">
+      <c r="G369" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10139,11 +10130,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F370" s="76" t="e">
+      <c r="F370" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G370" s="67" t="s">
+      <c r="G370" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10162,11 +10153,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F371" s="76" t="e">
+      <c r="F371" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G371" s="67" t="s">
+      <c r="G371" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10187,11 +10178,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F372" s="76" t="e">
+      <c r="F372" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G372" s="68" t="s">
+      <c r="G372" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10202,11 +10193,11 @@
       <c r="B373" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C373" s="54"/>
-      <c r="D373" s="60"/>
+      <c r="C373" s="53"/>
+      <c r="D373" s="59"/>
       <c r="E373" s="14"/>
-      <c r="F373" s="76"/>
-      <c r="G373" s="62"/>
+      <c r="F373" s="75"/>
+      <c r="G373" s="61"/>
     </row>
     <row r="374" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="29">
@@ -10215,11 +10206,11 @@
       <c r="B374" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C374" s="55"/>
-      <c r="D374" s="60"/>
+      <c r="C374" s="54"/>
+      <c r="D374" s="59"/>
       <c r="E374" s="14"/>
-      <c r="F374" s="76"/>
-      <c r="G374" s="62"/>
+      <c r="F374" s="75"/>
+      <c r="G374" s="61"/>
     </row>
     <row r="375" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="31" t="s">
@@ -10228,11 +10219,11 @@
       <c r="B375" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C375" s="56"/>
-      <c r="D375" s="60"/>
+      <c r="C375" s="55"/>
+      <c r="D375" s="59"/>
       <c r="E375" s="14"/>
-      <c r="F375" s="76"/>
-      <c r="G375" s="62"/>
+      <c r="F375" s="75"/>
+      <c r="G375" s="61"/>
     </row>
     <row r="376" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="31"/>
@@ -10249,11 +10240,11 @@
         <f t="shared" ref="E376:E384" si="37">D376-C376</f>
         <v>0</v>
       </c>
-      <c r="F376" s="76" t="e">
+      <c r="F376" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G376" s="69" t="s">
+      <c r="G376" s="68" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10272,11 +10263,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F377" s="76" t="e">
+      <c r="F377" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G377" s="70" t="s">
+      <c r="G377" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10295,11 +10286,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F378" s="76" t="e">
+      <c r="F378" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G378" s="70" t="s">
+      <c r="G378" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10318,11 +10309,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F379" s="76" t="e">
+      <c r="F379" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G379" s="70" t="s">
+      <c r="G379" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10341,11 +10332,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F380" s="76" t="e">
+      <c r="F380" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G380" s="70" t="s">
+      <c r="G380" s="69" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10364,11 +10355,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F381" s="76" t="e">
+      <c r="F381" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G381" s="70" t="s">
+      <c r="G381" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10387,11 +10378,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F382" s="76" t="e">
+      <c r="F382" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G382" s="70" t="s">
+      <c r="G382" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10410,11 +10401,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F383" s="76" t="e">
+      <c r="F383" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G383" s="70" t="s">
+      <c r="G383" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10433,11 +10424,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F384" s="76" t="e">
+      <c r="F384" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G384" s="70" t="s">
+      <c r="G384" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10448,11 +10439,11 @@
       <c r="B385" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C385" s="57"/>
-      <c r="D385" s="60"/>
+      <c r="C385" s="56"/>
+      <c r="D385" s="59"/>
       <c r="E385" s="14"/>
-      <c r="F385" s="76"/>
-      <c r="G385" s="71"/>
+      <c r="F385" s="75"/>
+      <c r="G385" s="70"/>
     </row>
     <row r="386" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="31"/>
@@ -10469,11 +10460,11 @@
         <f t="shared" ref="E386:E388" si="38">D386-C386</f>
         <v>0</v>
       </c>
-      <c r="F386" s="76" t="e">
+      <c r="F386" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G386" s="70" t="s">
+      <c r="G386" s="69" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10492,11 +10483,11 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F387" s="76" t="e">
+      <c r="F387" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G387" s="70" t="s">
+      <c r="G387" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10515,11 +10506,11 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F388" s="76" t="e">
+      <c r="F388" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G388" s="70" t="s">
+      <c r="G388" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10530,11 +10521,11 @@
       <c r="B389" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="C389" s="57"/>
+      <c r="C389" s="56"/>
       <c r="D389" s="47"/>
       <c r="E389" s="14"/>
-      <c r="F389" s="76"/>
-      <c r="G389" s="72"/>
+      <c r="F389" s="75"/>
+      <c r="G389" s="71"/>
     </row>
     <row r="390" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="31"/>
@@ -10551,11 +10542,11 @@
         <f t="shared" ref="E390:E402" si="39">D390-C390</f>
         <v>0</v>
       </c>
-      <c r="F390" s="76" t="e">
+      <c r="F390" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G390" s="70" t="s">
+      <c r="G390" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10574,11 +10565,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F391" s="76" t="e">
+      <c r="F391" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G391" s="70" t="s">
+      <c r="G391" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10597,11 +10588,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F392" s="76" t="e">
+      <c r="F392" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G392" s="70" t="s">
+      <c r="G392" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10620,11 +10611,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F393" s="76" t="e">
+      <c r="F393" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G393" s="70" t="s">
+      <c r="G393" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10643,11 +10634,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F394" s="76" t="e">
+      <c r="F394" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G394" s="70" t="s">
+      <c r="G394" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10666,11 +10657,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F395" s="76" t="e">
+      <c r="F395" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G395" s="70" t="s">
+      <c r="G395" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10689,11 +10680,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F396" s="76" t="e">
+      <c r="F396" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G396" s="70" t="s">
+      <c r="G396" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10712,11 +10703,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F397" s="76" t="e">
+      <c r="F397" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G397" s="70" t="s">
+      <c r="G397" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10735,11 +10726,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F398" s="76" t="e">
+      <c r="F398" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G398" s="73" t="s">
+      <c r="G398" s="72" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10758,11 +10749,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F399" s="76" t="e">
+      <c r="F399" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G399" s="70" t="s">
+      <c r="G399" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10781,11 +10772,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F400" s="76" t="e">
+      <c r="F400" s="75" t="e">
         <f t="shared" ref="F400:F408" si="40">SUM(D400-C400)/C400*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G400" s="70" t="s">
+      <c r="G400" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10804,11 +10795,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F401" s="76" t="e">
+      <c r="F401" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G401" s="70" t="s">
+      <c r="G401" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10827,11 +10818,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F402" s="76" t="e">
+      <c r="F402" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G402" s="70" t="s">
+      <c r="G402" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10842,11 +10833,11 @@
       <c r="B403" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C403" s="57"/>
-      <c r="D403" s="60"/>
+      <c r="C403" s="56"/>
+      <c r="D403" s="59"/>
       <c r="E403" s="14"/>
-      <c r="F403" s="76"/>
-      <c r="G403" s="72"/>
+      <c r="F403" s="75"/>
+      <c r="G403" s="71"/>
     </row>
     <row r="404" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="31"/>
@@ -10863,11 +10854,11 @@
         <f t="shared" ref="E404:E408" si="41">D404-C404</f>
         <v>0</v>
       </c>
-      <c r="F404" s="76" t="e">
+      <c r="F404" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G404" s="70" t="s">
+      <c r="G404" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10886,11 +10877,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F405" s="76" t="e">
+      <c r="F405" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G405" s="70" t="s">
+      <c r="G405" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10909,11 +10900,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F406" s="76" t="e">
+      <c r="F406" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G406" s="70" t="s">
+      <c r="G406" s="69" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10932,11 +10923,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F407" s="76" t="e">
+      <c r="F407" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G407" s="70" t="s">
+      <c r="G407" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10955,11 +10946,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F408" s="76" t="e">
+      <c r="F408" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G408" s="70" t="s">
+      <c r="G408" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10970,11 +10961,11 @@
       <c r="B409" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C409" s="54"/>
-      <c r="D409" s="60"/>
+      <c r="C409" s="53"/>
+      <c r="D409" s="59"/>
       <c r="E409" s="14"/>
-      <c r="F409" s="76"/>
-      <c r="G409" s="62"/>
+      <c r="F409" s="75"/>
+      <c r="G409" s="61"/>
     </row>
     <row r="410" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A410" s="29">
@@ -10983,11 +10974,11 @@
       <c r="B410" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="C410" s="55"/>
-      <c r="D410" s="60"/>
+      <c r="C410" s="54"/>
+      <c r="D410" s="59"/>
       <c r="E410" s="14"/>
-      <c r="F410" s="76"/>
-      <c r="G410" s="62"/>
+      <c r="F410" s="75"/>
+      <c r="G410" s="61"/>
     </row>
     <row r="411" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A411" s="31"/>
@@ -11004,11 +10995,11 @@
         <f t="shared" ref="E411:E415" si="42">D411-C411</f>
         <v>0</v>
       </c>
-      <c r="F411" s="76" t="e">
+      <c r="F411" s="75" t="e">
         <f t="shared" ref="F411:F413" si="43">SUM(D411-C411)/C411*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G411" s="62" t="s">
+      <c r="G411" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11027,11 +11018,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F412" s="76" t="e">
+      <c r="F412" s="75" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G412" s="62" t="s">
+      <c r="G412" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11050,11 +11041,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F413" s="76" t="e">
+      <c r="F413" s="75" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G413" s="62" t="s">
+      <c r="G413" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11073,11 +11064,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F414" s="76" t="e">
+      <c r="F414" s="75" t="e">
         <f t="shared" ref="F414" si="44">SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G414" s="62" t="s">
+      <c r="G414" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11086,11 +11077,11 @@
       <c r="B415" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C415" s="58">
+      <c r="C415" s="57">
         <f>SUM(C411:C414)</f>
         <v>0</v>
       </c>
-      <c r="D415" s="61">
+      <c r="D415" s="60">
         <f>SUM(D411:D414)</f>
         <v>0</v>
       </c>
@@ -11098,47 +11089,47 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F415" s="77" t="e">
+      <c r="F415" s="76" t="e">
         <f>SUM(D415-C415)/C415*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G415" s="74" t="s">
+      <c r="G415" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="416" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="75" t="s">
+      <c r="A416" s="74" t="s">
         <v>291</v>
       </c>
       <c r="B416" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C416" s="80"/>
-      <c r="D416" s="61"/>
+      <c r="C416" s="79"/>
+      <c r="D416" s="60"/>
       <c r="E416" s="14"/>
-      <c r="F416" s="77"/>
-      <c r="G416" s="74"/>
+      <c r="F416" s="76"/>
+      <c r="G416" s="73"/>
     </row>
     <row r="417" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="36"/>
       <c r="B417" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C417" s="80">
-        <v>0</v>
-      </c>
-      <c r="D417" s="61">
+      <c r="C417" s="79">
+        <v>0</v>
+      </c>
+      <c r="D417" s="60">
         <v>0</v>
       </c>
       <c r="E417" s="14">
         <f>D417-C417</f>
         <v>0</v>
       </c>
-      <c r="F417" s="77" t="e">
+      <c r="F417" s="76" t="e">
         <f t="shared" ref="F417:F422" si="45">SUM(D417-C417)/C417*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G417" s="74" t="s">
+      <c r="G417" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11147,21 +11138,21 @@
       <c r="B418" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C418" s="80">
-        <v>0</v>
-      </c>
-      <c r="D418" s="61">
+      <c r="C418" s="79">
+        <v>0</v>
+      </c>
+      <c r="D418" s="60">
         <v>0</v>
       </c>
       <c r="E418" s="14">
         <f t="shared" ref="E418:E422" si="46">D418-C418</f>
         <v>0</v>
       </c>
-      <c r="F418" s="77" t="e">
+      <c r="F418" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G418" s="74" t="s">
+      <c r="G418" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11170,21 +11161,21 @@
       <c r="B419" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C419" s="80">
-        <v>0</v>
-      </c>
-      <c r="D419" s="61">
+      <c r="C419" s="79">
+        <v>0</v>
+      </c>
+      <c r="D419" s="60">
         <v>0</v>
       </c>
       <c r="E419" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F419" s="77" t="e">
+      <c r="F419" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G419" s="74" t="s">
+      <c r="G419" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11193,21 +11184,21 @@
       <c r="B420" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C420" s="80">
-        <v>0</v>
-      </c>
-      <c r="D420" s="61">
+      <c r="C420" s="79">
+        <v>0</v>
+      </c>
+      <c r="D420" s="60">
         <v>0</v>
       </c>
       <c r="E420" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F420" s="77" t="e">
+      <c r="F420" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G420" s="74" t="s">
+      <c r="G420" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11216,34 +11207,34 @@
       <c r="B421" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C421" s="80">
-        <v>0</v>
-      </c>
-      <c r="D421" s="61">
+      <c r="C421" s="79">
+        <v>0</v>
+      </c>
+      <c r="D421" s="60">
         <v>0</v>
       </c>
       <c r="E421" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F421" s="77" t="e">
+      <c r="F421" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G421" s="74" t="s">
+      <c r="G421" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="78"/>
-      <c r="B422" s="81" t="s">
+      <c r="A422" s="77"/>
+      <c r="B422" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C422" s="79">
+      <c r="C422" s="78">
         <f>SUM(C417:C421)</f>
         <v>0</v>
       </c>
-      <c r="D422" s="79">
+      <c r="D422" s="78">
         <f>SUM(D417:D421)</f>
         <v>0</v>
       </c>
@@ -11251,47 +11242,47 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F422" s="77" t="e">
+      <c r="F422" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G422" s="74" t="s">
+      <c r="G422" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="82" t="s">
+      <c r="A423" s="81" t="s">
         <v>297</v>
       </c>
       <c r="B423" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C423" s="80"/>
-      <c r="D423" s="61"/>
+      <c r="C423" s="79"/>
+      <c r="D423" s="60"/>
       <c r="E423" s="14"/>
-      <c r="F423" s="77"/>
-      <c r="G423" s="74"/>
+      <c r="F423" s="76"/>
+      <c r="G423" s="73"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="36"/>
       <c r="B424" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C424" s="80">
-        <v>0</v>
-      </c>
-      <c r="D424" s="61">
+      <c r="C424" s="79">
+        <v>0</v>
+      </c>
+      <c r="D424" s="60">
         <v>0</v>
       </c>
       <c r="E424" s="14">
         <f>D424-C424</f>
         <v>0</v>
       </c>
-      <c r="F424" s="77" t="e">
+      <c r="F424" s="76" t="e">
         <f t="shared" ref="F424:F426" si="47">SUM(D424-C424)/C424*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G424" s="70" t="s">
+      <c r="G424" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11300,34 +11291,34 @@
       <c r="B425" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="C425" s="80">
-        <v>0</v>
-      </c>
-      <c r="D425" s="61">
+      <c r="C425" s="79">
+        <v>0</v>
+      </c>
+      <c r="D425" s="60">
         <v>0</v>
       </c>
       <c r="E425" s="14">
         <f t="shared" ref="E425:E426" si="48">D425-C425</f>
         <v>0</v>
       </c>
-      <c r="F425" s="77" t="e">
+      <c r="F425" s="76" t="e">
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G425" s="70" t="s">
+      <c r="G425" s="69" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="78"/>
-      <c r="B426" s="81" t="s">
+      <c r="A426" s="77"/>
+      <c r="B426" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C426" s="79">
+      <c r="C426" s="78">
         <f>SUM(C424:C425)</f>
         <v>0</v>
       </c>
-      <c r="D426" s="79">
+      <c r="D426" s="78">
         <f>SUM(D424:D425)</f>
         <v>0</v>
       </c>
@@ -11335,16 +11326,36 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="F426" s="77" t="e">
+      <c r="F426" s="76" t="e">
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G426" s="70" t="s">
+      <c r="G426" s="69" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E428" s="87"/>
+      <c r="F428" s="87"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E429" s="87"/>
+      <c r="F429" s="87"/>
+    </row>
+    <row r="434" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E434" s="87"/>
+      <c r="F434" s="87"/>
+    </row>
+    <row r="435" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E435" s="87"/>
+      <c r="F435" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="E435:F435"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
